--- a/SKU_class_item.xlsx
+++ b/SKU_class_item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiazhi/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiazhi/Documents/GitHub/Oldways/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB40247C-1C0B-C246-B5C6-6338A6D6C689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B101009-2D08-7E44-9107-878E7681FA75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="660" windowWidth="27240" windowHeight="14940" xr2:uid="{7C65D7F7-CBBD-EE41-BDD1-63A18DE5D34A}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
   <si>
     <t>037 OCC:037-1 General</t>
   </si>
   <si>
-    <t>T-SHIRTS</t>
-  </si>
-  <si>
     <t>OTH_CCCShirt_S</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>BK_GoodforMe</t>
   </si>
   <si>
-    <t>MED 25 BUNDLE</t>
-  </si>
-  <si>
     <t>BU_MedBundle</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>BK_EMedMenu</t>
   </si>
   <si>
-    <t>AH Handbook</t>
-  </si>
-  <si>
     <t>BK_ATOAHT</t>
   </si>
   <si>
@@ -310,13 +301,88 @@
   </si>
   <si>
     <t>BK_EWHOLEGRAINS</t>
+  </si>
+  <si>
+    <t>CHEESE T-SHIRT</t>
+  </si>
+  <si>
+    <t>BAG</t>
+  </si>
+  <si>
+    <t>OLDWAYS TABLE</t>
+  </si>
+  <si>
+    <t>LATIN POSTER</t>
+  </si>
+  <si>
+    <t>VEG POSTER</t>
+  </si>
+  <si>
+    <t>WG BUTTONS</t>
+  </si>
+  <si>
+    <t>WGC BROCHURES</t>
+  </si>
+  <si>
+    <t>WG PIN</t>
+  </si>
+  <si>
+    <t>HIGH FIVE</t>
+  </si>
+  <si>
+    <t>ALL PYRAMIDS PCK</t>
+  </si>
+  <si>
+    <t>PYRAMID - SM</t>
+  </si>
+  <si>
+    <t>WG STICKERS</t>
+  </si>
+  <si>
+    <t>Camino Magico Booklet</t>
+  </si>
+  <si>
+    <t>MED MAGNET</t>
+  </si>
+  <si>
+    <t>MED DIET NOTEPAD</t>
+  </si>
+  <si>
+    <t>VEG MENU</t>
+  </si>
+  <si>
+    <t>CHEESE BROCHURE</t>
+  </si>
+  <si>
+    <t>CHEESE TOTE</t>
+  </si>
+  <si>
+    <t>MED MENU EBOOK</t>
+  </si>
+  <si>
+    <t>AH Handbook 15</t>
+  </si>
+  <si>
+    <t>MED BUNDLE HP</t>
+  </si>
+  <si>
+    <t>ASIAN POSTER</t>
+  </si>
+  <si>
+    <t>ASIAN BROCHURE</t>
+  </si>
+  <si>
+    <t>VEG MENU EBOOK</t>
+  </si>
+  <si>
+    <t>WG EBOOK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +400,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -357,10 +441,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +765,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -699,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -710,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -721,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -743,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -754,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -765,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -776,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -787,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -798,312 +885,362 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,138 +1248,142 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1250,112 +1391,116 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B63" s="5"/>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
